--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3451.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3451.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.238427557328265</v>
+        <v>1.227295398712158</v>
       </c>
       <c r="B1">
-        <v>2.017632700183429</v>
+        <v>2.176074028015137</v>
       </c>
       <c r="C1">
-        <v>2.322522021231765</v>
+        <v>5.964845657348633</v>
       </c>
       <c r="D1">
-        <v>2.683560257047049</v>
+        <v>1.185987830162048</v>
       </c>
       <c r="E1">
-        <v>3.412525770424546</v>
+        <v>1.282487869262695</v>
       </c>
     </row>
   </sheetData>
